--- a/biology/Microbiologie/Équation_de_Monod/Équation_de_Monod.xlsx
+++ b/biology/Microbiologie/Équation_de_Monod/Équation_de_Monod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Monod</t>
+          <t>Équation_de_Monod</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'équation de Monod est un modèle mathématique utilisé pour la croissance des micro-organismes (levure, bactéries...). Cette équation a été proposée par Jacques Monod sous cette forme pour modéliser la croissance de biomasse microbienne en milieu aqueux, selon la concentration en nutriments facteur limitant[1]. L'équation de Monod ressemble aux équations de Michaelis-Menten, mais en diffère par son approche empirique (c.-à-d., méthode expérimentale, induction) tandis que ces dernières sont basées sur des considérations théoriques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'équation de Monod est un modèle mathématique utilisé pour la croissance des micro-organismes (levure, bactéries...). Cette équation a été proposée par Jacques Monod sous cette forme pour modéliser la croissance de biomasse microbienne en milieu aqueux, selon la concentration en nutriments facteur limitant. L'équation de Monod ressemble aux équations de Michaelis-Menten, mais en diffère par son approche empirique (c.-à-d., méthode expérimentale, induction) tandis que ces dernières sont basées sur des considérations théoriques.
 L'équation de Monod est couramment utilisée dans l'ingénierie de l'épuration des eaux, notamment le calcul de croissance des boues activées dans le traitement des eaux usées.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89quation_de_Monod</t>
+          <t>Équation_de_Monod</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Équation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'équation de Monod décrit la vitesse de croissance μ de micro-organismes donnés en fonction de la concentration en substrat [S] limitant cette croissance de la façon suivante[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'équation de Monod décrit la vitesse de croissance μ de micro-organismes donnés en fonction de la concentration en substrat [S] limitant cette croissance de la façon suivante :
         μ
         =
           μ
